--- a/medicine/Enfance/Rosa_Serrano_i_Llàcer/Rosa_Serrano_i_Llàcer.xlsx
+++ b/medicine/Enfance/Rosa_Serrano_i_Llàcer/Rosa_Serrano_i_Llàcer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rosa_Serrano_i_Ll%C3%A0cer</t>
+          <t>Rosa_Serrano_i_Llàcer</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rosa Serrano i Llàcer (Paiporta, 5 juin 1945) est une écrivaine valencienne de fiction pour enfants, traductrice et éditrice, qui s'est distinguée par son engagement culturel en faveur de la langue valencienne. Elle a d'abord été publiée sous le pseudonyme de Blanca Cassany.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Rosa_Serrano_i_Ll%C3%A0cer</t>
+          <t>Rosa_Serrano_i_Llàcer</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Née à Paiporta en 1945, elle est diplômée en pédagogie de l'université de Barcelone. Elle a créé l'école Gavina à Picanya, la première école en valencien. Elle a dirigé Tàndem Edicions, a été membre du Consell Valencià de Cultura entre 1998 et 2002, et est l'auteur de nombreux romans, livres de poésie et de l'adaptation pour enfants des 36 Rondalles Valencianes d'Enric Valor, ainsi que traductrice de plusieurs romans en français[1].
-Elle a été présidente de l'Associació d'Editors del País Valencià et a reçu le prix Isabel de Villena (1999)[2], le prix de la Fondation Bromera (2007) et le prix Vicent Ventura (2011). En 2019, l'Acadèmia Valenciana de la Llengua a reconnu son travail avec la plus haute distinction académique, soulignant sa contribution à la création de cette institution. En 2019, il a reçu la Alta Distinción de la Generalitat Valenciana pour son "travail culturel en faveur de la langue valencienne" [3],[4],[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Née à Paiporta en 1945, elle est diplômée en pédagogie de l'université de Barcelone. Elle a créé l'école Gavina à Picanya, la première école en valencien. Elle a dirigé Tàndem Edicions, a été membre du Consell Valencià de Cultura entre 1998 et 2002, et est l'auteur de nombreux romans, livres de poésie et de l'adaptation pour enfants des 36 Rondalles Valencianes d'Enric Valor, ainsi que traductrice de plusieurs romans en français.
+Elle a été présidente de l'Associació d'Editors del País Valencià et a reçu le prix Isabel de Villena (1999), le prix de la Fondation Bromera (2007) et le prix Vicent Ventura (2011). En 2019, l'Acadèmia Valenciana de la Llengua a reconnu son travail avec la plus haute distinction académique, soulignant sa contribution à la création de cette institution. En 2019, il a reçu la Alta Distinción de la Generalitat Valenciana pour son "travail culturel en faveur de la langue valencienne" .
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Rosa_Serrano_i_Ll%C3%A0cer</t>
+          <t>Rosa_Serrano_i_Llàcer</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,14 +557,16 @@
           <t>Écrivaine et éditrice</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A été la responsable de faire l'adaptation enfantine des Fables Valenciennes d'Enric Valor à l'accord du recopilador valencien joint auquel a été en travaillant pour les adapter et enfin être publiées en 1985 par la maison d'édition Gregal[6].
-En 1990 a mis en œuvre, joint à autres copains et copines, Tandem Éditions, une maison d'édition en valencien adressée aux lecteurs enfantins, pensée en son début pour un secteur qu'en ce moment n'avait pas offre littéraire en valencien, les créatures de 3, 4 et 5 ans[7],[8]. Les premiers ont détaché par la publication de récit infantile et juvénile, ainsi que matériels pour l'enseignement du valencien, d'entre les collections les plus remarquables a été «La Rateta Mareta» qu'il a atteint avoir 48 titres[8],[7].
-Pourtant il détache son travail éditorial dirigé à des lecteurs adultes comme, par exemple, la collection consacrée à converties «Tandem de la memoria»[7]. A été l'éditrice dans "Tàndem Edicions" des romans de l'écrivain Enric Valor comme «L'ambiciò d'Aleix», «Narrations pérennes» et le «Cicle de Cassana» et il a contribué à populariser et à convertir en un référent à Enric Valor à une intense campagne de diffusion[8],[9].
-A été membre fondatrice de l'Association d'Éditeurs du Pays Valencien et sa présidente en plusieurs occasions[8]. Membre du Conseil Valencien de Culture entre en 1998 et 2002. Ilest auteur d'une vingtaine de titres de récit infanile et juvénile, livres de texte et divulgation linguistique[7],[10],[11]. Comme auteur a collaboré à la publication d'articles ou de contes à plusieurs revues, comme, par exemple "Lutrin", "Saó", "Clij" ou "Camacuc"[12].
-Entre autres prix, il a reçu le prix Isabel de Villena (1999) le prix "Fundaciò Bromera (2007) et le prix Vicent Ventura (2011). Le 2019 l'Académie Valencienne de la Langue a reconnu sa tâche à la maximale distinction académique, en détachant sa contribution à la création de cette institution. Reçut au 2019 La Haute Distinction de la Generalitat Valencienne par son labeur culturel pour la langue valencienne[5].
-Le mois de mai de 2012 s'est mis à la retraite aux 67 ans après diriger "Tandem Édicions" pendant 22 ans[6],[8].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A été la responsable de faire l'adaptation enfantine des Fables Valenciennes d'Enric Valor à l'accord du recopilador valencien joint auquel a été en travaillant pour les adapter et enfin être publiées en 1985 par la maison d'édition Gregal.
+En 1990 a mis en œuvre, joint à autres copains et copines, Tandem Éditions, une maison d'édition en valencien adressée aux lecteurs enfantins, pensée en son début pour un secteur qu'en ce moment n'avait pas offre littéraire en valencien, les créatures de 3, 4 et 5 ans,. Les premiers ont détaché par la publication de récit infantile et juvénile, ainsi que matériels pour l'enseignement du valencien, d'entre les collections les plus remarquables a été «La Rateta Mareta» qu'il a atteint avoir 48 titres,.
+Pourtant il détache son travail éditorial dirigé à des lecteurs adultes comme, par exemple, la collection consacrée à converties «Tandem de la memoria». A été l'éditrice dans "Tàndem Edicions" des romans de l'écrivain Enric Valor comme «L'ambiciò d'Aleix», «Narrations pérennes» et le «Cicle de Cassana» et il a contribué à populariser et à convertir en un référent à Enric Valor à une intense campagne de diffusion,.
+A été membre fondatrice de l'Association d'Éditeurs du Pays Valencien et sa présidente en plusieurs occasions. Membre du Conseil Valencien de Culture entre en 1998 et 2002. Ilest auteur d'une vingtaine de titres de récit infanile et juvénile, livres de texte et divulgation linguistique. Comme auteur a collaboré à la publication d'articles ou de contes à plusieurs revues, comme, par exemple "Lutrin", "Saó", "Clij" ou "Camacuc".
+Entre autres prix, il a reçu le prix Isabel de Villena (1999) le prix "Fundaciò Bromera (2007) et le prix Vicent Ventura (2011). Le 2019 l'Académie Valencienne de la Langue a reconnu sa tâche à la maximale distinction académique, en détachant sa contribution à la création de cette institution. Reçut au 2019 La Haute Distinction de la Generalitat Valencienne par son labeur culturel pour la langue valencienne.
+Le mois de mai de 2012 s'est mis à la retraite aux 67 ans après diriger "Tandem Édicions" pendant 22 ans,.
 </t>
         </is>
       </c>
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Rosa_Serrano_i_Ll%C3%A0cer</t>
+          <t>Rosa_Serrano_i_Llàcer</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,9 +595,11 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Rosa Serrano a écrit les œuvres suivantes[12] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Rosa Serrano a écrit les œuvres suivantes :
 La paraula és una aventura (1981)
 Hola i adéu, Júlia (1985)
 Ma casa (1985)
